--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D40232C-E1FE-455E-9B6C-50F1CEC9F21D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB072FE5-D09F-40BD-ADCC-F6F93946E7DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="18">
   <si>
     <t>Board</t>
   </si>
@@ -40,7 +41,7 @@
     <t>P</t>
   </si>
   <si>
-    <t>L2</t>
+    <t>Pre-D Bet</t>
   </si>
   <si>
     <t>F2</t>
@@ -49,16 +50,19 @@
     <t>F3</t>
   </si>
   <si>
-    <t>Pre-D Bet</t>
+    <t>The Chase</t>
+  </si>
+  <si>
+    <t>L2</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>The Chase</t>
+    <t>L3</t>
   </si>
   <si>
-    <t>L3</t>
+    <t>Should have went F2 after this lost</t>
   </si>
   <si>
     <t>L4</t>
@@ -67,7 +71,10 @@
     <t>L5</t>
   </si>
   <si>
-    <t>Should have went F2 after this lost</t>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F8</t>
   </si>
 </sst>
 </file>
@@ -83,12 +90,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -111,6 +136,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,13 +448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +526,7 @@
         <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -535,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -560,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -574,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -588,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -616,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -630,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -644,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -686,13 +719,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -731,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>8</v>
@@ -745,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -773,13 +806,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,7 +837,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -818,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -832,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>11</v>
@@ -860,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>18</v>
@@ -874,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>13</v>
@@ -902,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -916,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -944,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>18</v>
@@ -958,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>19</v>
@@ -972,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>17</v>
@@ -1000,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>20</v>
@@ -1014,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>19</v>
@@ -1042,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>18</v>
@@ -1143,6 +1176,764 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74756C45-CB8E-4F8C-A3A4-23F2BB9AD672}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E32CD-3825-476E-8DD0-7EF1A6FF9562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="600" windowWidth="18216" windowHeight="10824" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="The Chase" sheetId="2" r:id="rId2"/>
     <sheet name="Tough Shoe" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="19">
   <si>
     <t>Board</t>
   </si>
@@ -78,6 +79,9 @@
   <si>
     <t>F8</t>
   </si>
+  <si>
+    <t>Total:</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +128,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -137,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -158,6 +174,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2650,7 +2674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -3434,4 +3458,463 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="13">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E32CD-3825-476E-8DD0-7EF1A6FF9562}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6245ED31-87CA-4619-B51E-7144A7DB7BC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="The Chase" sheetId="2" r:id="rId2"/>
     <sheet name="Tough Shoe" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="19">
   <si>
     <t>Board</t>
   </si>
@@ -2674,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -3461,10 +3462,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -3917,4 +3918,490 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="13">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A37909-BD7C-479C-AA50-240FD1317DAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB61DDB-048E-426D-8B34-15655F87BB75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3948" yWindow="612" windowWidth="16584" windowHeight="11220" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3948" yWindow="612" windowWidth="16584" windowHeight="11220" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="29">
   <si>
     <t>Board</t>
   </si>
@@ -129,15 +129,6 @@
   </si>
   <si>
     <t>Banker</t>
-  </si>
-  <si>
-    <t>Checks</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
 </sst>
 </file>
@@ -10066,8 +10057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10085,9 +10076,6 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
@@ -10142,9 +10130,6 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
@@ -10159,9 +10144,6 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8">
         <v>-2</v>
       </c>
@@ -10175,9 +10157,6 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
       </c>
       <c r="G9">
         <v>-4</v>
@@ -10193,9 +10172,6 @@
       <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" s="10">
         <v>-1</v>
       </c>
@@ -10210,9 +10186,6 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
@@ -10227,9 +10200,6 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" s="10">
         <v>4</v>
       </c>
@@ -10244,9 +10214,6 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
@@ -10261,9 +10228,6 @@
       <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
       <c r="G14" s="10">
         <v>4</v>
       </c>
@@ -10278,9 +10242,6 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
       <c r="G15">
         <v>1</v>
       </c>
@@ -10294,9 +10255,6 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
       <c r="G16">
         <v>-2</v>
@@ -10312,9 +10270,6 @@
       <c r="E17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
       <c r="G17" s="10">
         <v>0</v>
       </c>
@@ -10328,9 +10283,6 @@
       </c>
       <c r="E18" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -10346,9 +10298,6 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
       <c r="G19" s="10">
         <v>4</v>
       </c>
@@ -10363,9 +10312,6 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
       <c r="G20">
         <v>-1</v>
       </c>
@@ -10380,9 +10326,6 @@
       <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
-        <v>31</v>
-      </c>
       <c r="G21" s="10">
         <v>1</v>
       </c>
@@ -10396,9 +10339,6 @@
       </c>
       <c r="E22" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
       </c>
       <c r="G22">
         <v>-1</v>
@@ -10414,9 +10354,6 @@
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
-        <v>31</v>
-      </c>
       <c r="G23" s="10">
         <v>1</v>
       </c>
@@ -10431,9 +10368,6 @@
       <c r="E24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
       <c r="G24">
         <v>1</v>
       </c>
@@ -10447,9 +10381,6 @@
       </c>
       <c r="E25" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
       </c>
       <c r="G25">
         <v>-2</v>
@@ -10465,9 +10396,6 @@
       <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
       <c r="G26">
         <v>-4</v>
       </c>
@@ -10482,9 +10410,6 @@
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
       <c r="G27">
         <v>-7</v>
       </c>
@@ -10499,9 +10424,6 @@
       <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
       <c r="G28" s="10">
         <v>-12</v>
       </c>
@@ -10515,9 +10437,6 @@
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>30</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -10533,9 +10452,6 @@
       <c r="E30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
       <c r="G30" s="10">
         <v>4</v>
       </c>
@@ -10549,9 +10465,6 @@
       </c>
       <c r="E31" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -10567,9 +10480,6 @@
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
       <c r="G32" s="10">
         <v>1</v>
       </c>
@@ -10583,9 +10493,6 @@
       </c>
       <c r="E33" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -10601,9 +10508,6 @@
       <c r="E34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F34" t="s">
-        <v>30</v>
-      </c>
       <c r="G34" s="10">
         <v>1</v>
       </c>
@@ -10618,9 +10522,6 @@
       <c r="E35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F35" t="s">
-        <v>31</v>
-      </c>
       <c r="G35">
         <v>1</v>
       </c>
@@ -10635,25 +10536,19 @@
       <c r="E36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
-        <v>31</v>
-      </c>
       <c r="G36" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>30</v>
       </c>
       <c r="G37">
         <v>-1</v>
@@ -10661,7 +10556,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>7</v>
@@ -10669,25 +10564,19 @@
       <c r="E38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F38" t="s">
-        <v>31</v>
-      </c>
       <c r="G38" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>31</v>
       </c>
       <c r="G39">
         <v>-1</v>
@@ -10695,7 +10584,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>7</v>
@@ -10703,25 +10592,19 @@
       <c r="E40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
-        <v>31</v>
-      </c>
       <c r="G40" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F41" t="s">
-        <v>31</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -10729,7 +10612,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -10737,16 +10620,13 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" t="s">
-        <v>31</v>
-      </c>
       <c r="G42">
         <v>-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -10754,16 +10634,13 @@
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F43" t="s">
-        <v>31</v>
-      </c>
       <c r="G43">
         <v>-4</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>8</v>
@@ -10771,25 +10648,19 @@
       <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F44" t="s">
-        <v>31</v>
-      </c>
       <c r="G44" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
       </c>
       <c r="G45">
         <v>-1</v>
@@ -10797,7 +10668,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>7</v>
@@ -10805,25 +10676,19 @@
       <c r="E46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F46" t="s">
-        <v>31</v>
-      </c>
       <c r="G46" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>30</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -10839,9 +10704,6 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" t="s">
-        <v>31</v>
-      </c>
       <c r="G48" s="10">
         <v>4</v>
       </c>
@@ -10856,16 +10718,13 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" t="s">
-        <v>31</v>
-      </c>
       <c r="G49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -10873,9 +10732,6 @@
       <c r="E50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F50" t="s">
-        <v>30</v>
-      </c>
       <c r="G50">
         <v>-2</v>
       </c>
@@ -10889,9 +10745,6 @@
       </c>
       <c r="E51" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F51" t="s">
-        <v>31</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
@@ -10907,17 +10760,12 @@
       <c r="E52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
-        <v>31</v>
-      </c>
       <c r="G52" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="F53" s="11"/>
       <c r="G53" s="12">
         <v>18</v>
       </c>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB61DDB-048E-426D-8B34-15655F87BB75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D40B49-755B-4C8D-8B1C-30439A3A6F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3948" yWindow="612" windowWidth="16584" windowHeight="11220" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,14 @@
     <sheet name="Sheet18" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet19" sheetId="22" r:id="rId22"/>
     <sheet name="Sheet20" sheetId="23" r:id="rId23"/>
+    <sheet name="#18 Revise" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="30">
   <si>
     <t>Board</t>
   </si>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>Banker</t>
+  </si>
+  <si>
+    <t>Checks</t>
   </si>
 </sst>
 </file>
@@ -8615,7 +8619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9077,7 +9083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
@@ -10057,8 +10063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10768,6 +10774,549 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12">
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="12">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D40B49-755B-4C8D-8B1C-30439A3A6F4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553D1D7-CC40-46D0-9B2B-DA323289C8E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="16584" windowHeight="11220" firstSheet="33" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,26 @@
     <sheet name="Sheet17" sheetId="20" r:id="rId20"/>
     <sheet name="Sheet18" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet19" sheetId="22" r:id="rId22"/>
-    <sheet name="Sheet20" sheetId="23" r:id="rId23"/>
+    <sheet name="Jays Shoe" sheetId="23" r:id="rId23"/>
     <sheet name="#18 Revise" sheetId="24" r:id="rId24"/>
+    <sheet name="#17 Revise" sheetId="25" r:id="rId25"/>
+    <sheet name="Tough Shoe Revise" sheetId="26" r:id="rId26"/>
+    <sheet name="#1 Revise" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet20" sheetId="28" r:id="rId28"/>
+    <sheet name="JayPredicts" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet21" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet22" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet23" sheetId="32" r:id="rId32"/>
+    <sheet name="Shoe#1" sheetId="33" r:id="rId33"/>
+    <sheet name="Shoe#2" sheetId="34" r:id="rId34"/>
+    <sheet name="Shoe#3" sheetId="35" r:id="rId35"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="40">
   <si>
     <t>Board</t>
   </si>
@@ -134,12 +145,42 @@
   <si>
     <t>Checks</t>
   </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Rig</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>MorseCode-Choppy</t>
+  </si>
+  <si>
+    <t>NewGame</t>
+  </si>
+  <si>
+    <t>DragonTail</t>
+  </si>
+  <si>
+    <t>Chop</t>
+  </si>
+  <si>
+    <t>Dyn</t>
+  </si>
+  <si>
+    <t>Law75</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +202,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +264,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D4DFF"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -272,6 +325,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4333,7 +4390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="71" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6586,7 +6643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8110,7 +8167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9083,7 +9140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
@@ -10063,7 +10120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
@@ -10785,7 +10842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -11317,6 +11374,3747 @@
       </c>
       <c r="G46" s="12">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-2</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-2</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-5</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-7</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-9</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-11</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-13</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-12</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-14</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-12</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-11</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-10</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="12">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="112" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-4</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-1</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="12">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-4</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-4</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="10">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="10">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-2</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="12">
+        <v>-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-4</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-4</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-3</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-6</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-6</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-6</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-6</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-6</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-6</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-6</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-6</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-6</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-4</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-3</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-2</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-4</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-6</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-5</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-5</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-4</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-3</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-2</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-2</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="12">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -11328,7 +15126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -12018,11 +15816,5820 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-3</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-3</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-4</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-3</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-3</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-2</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-3</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-6</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-5</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-4</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-8</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>-10</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>-11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>-10</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <dimension ref="A1:G142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A121" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-2</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-3</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-3</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-5</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-5</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-3</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-3</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-5</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-6</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-5</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-4</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-7</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-9</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>-10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>-11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>-10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>-11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>-12</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>-11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>-12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>-13</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>-12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>-13</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>-12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>-11</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>-12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>-11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>-10</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>-9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>-8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>-9</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>-10</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>-11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>-12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>-11</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>-10</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>-9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>-8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>-9</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>-10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>-11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>-10</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>-9</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>-1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>-1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>-1</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>-2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>-3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>-2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>-2</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>-1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>-2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>-3</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G121" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>-4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>-3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>-4</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>-5</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>-4</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>-5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>-6</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G128" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>-7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>-6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>-5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>-6</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>-7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>-6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G134">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>-5</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>-4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G136">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>-3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>-4</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>-3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>-2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>-1</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G141" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F142" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="12">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-3</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>-3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-2</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>-3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-3</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-4</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-7</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-8</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-9</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-9</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-9</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-9</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-8</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-12</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-12</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-11</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-11</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-9</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="12">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-3</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-5</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-6</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-5</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-3</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-2</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-3</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-3</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-2</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="12">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-4</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-3</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-2</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-3</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>-2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="12">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
@@ -12812,7 +22419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553D1D7-CC40-46D0-9B2B-DA323289C8E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40B3F4-F44E-4658-828C-F622298129CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="16584" windowHeight="11220" firstSheet="33" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4260" yWindow="828" windowWidth="16584" windowHeight="10392" firstSheet="35" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,20 @@
     <sheet name="Shoe#1" sheetId="33" r:id="rId33"/>
     <sheet name="Shoe#2" sheetId="34" r:id="rId34"/>
     <sheet name="Shoe#3" sheetId="35" r:id="rId35"/>
+    <sheet name="Shoe#1-Corr" sheetId="36" r:id="rId36"/>
+    <sheet name="Shoe#1-Revised" sheetId="37" r:id="rId37"/>
+    <sheet name="Shoe#2-Corr" sheetId="38" r:id="rId38"/>
+    <sheet name="Shoe#4" sheetId="39" r:id="rId39"/>
+    <sheet name="Shoe#5" sheetId="40" r:id="rId40"/>
+    <sheet name="ToughShoe" sheetId="41" r:id="rId41"/>
+    <sheet name="NewShoe" sheetId="42" r:id="rId42"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4440" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="58">
   <si>
     <t>Board</t>
   </si>
@@ -175,12 +182,66 @@
   <si>
     <t>Law75</t>
   </si>
+  <si>
+    <t>Dragon Tail</t>
+  </si>
+  <si>
+    <t>Law 75</t>
+  </si>
+  <si>
+    <t>Waiting for virt seq</t>
+  </si>
+  <si>
+    <t>MC-Chop</t>
+  </si>
+  <si>
+    <t>Should be going TT</t>
+  </si>
+  <si>
+    <t>Cuz TI = negative</t>
+  </si>
+  <si>
+    <t>MC-TT</t>
+  </si>
+  <si>
+    <t>Should be going Chop</t>
+  </si>
+  <si>
+    <t>Shouldn't be playing</t>
+  </si>
+  <si>
+    <t>Dragno Tail</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Should have ended game</t>
+  </si>
+  <si>
+    <t>No, im catching a dragontail</t>
+  </si>
+  <si>
+    <t>I ended the game here</t>
+  </si>
+  <si>
+    <t>Rig-B</t>
+  </si>
+  <si>
+    <t>Rig-P</t>
+  </si>
+  <si>
+    <t>end game +6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +268,41 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="11">
@@ -283,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -329,6 +425,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20484,7 +20587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -21618,6 +21721,4542 @@
       </c>
       <c r="G73" s="12">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-3</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-4</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-3</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-3</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-4</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-9</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-9</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-8</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-10</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-12</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-12</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-9</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="12">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-3</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-5</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-3</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-3</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-9</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-10</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-9</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-9</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-10</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="12">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-4</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-3</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-3</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-4</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-6</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-5</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-6</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-4</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-3</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-4</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-3</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-4</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-3</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" s="10">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-1</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="12">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+  <dimension ref="A1:G74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-4</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-6</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-8</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-12</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-9</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-6</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-5</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-8</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-9</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-8</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-8</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-7</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-10</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-11</v>
+      </c>
+      <c r="E63" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-13</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-17</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>-16</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>-17</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="12">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -22415,6 +27054,2942 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-3</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-7</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-6</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-7</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-4</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-6</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-6</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-7</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-7</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-5</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-5</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-8</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-8</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-10</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-9</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-8</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-7</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="12">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-3</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-2</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-3</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-2</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-2</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="12">
+        <v>-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-5</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-5</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-4</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-5</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-6</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-8</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-9</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-8</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-8</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-6</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-4</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-3</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-1</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-2</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="12">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D54"/>

--- a/Practice.xlsx
+++ b/Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeok\PycharmProjects\TICounter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40B3F4-F44E-4658-828C-F622298129CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE38B34-24DE-4496-808B-312CDD68E33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4260" yWindow="828" windowWidth="16584" windowHeight="10392" firstSheet="35" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="38" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -55,13 +55,19 @@
     <sheet name="Shoe#5" sheetId="40" r:id="rId40"/>
     <sheet name="ToughShoe" sheetId="41" r:id="rId41"/>
     <sheet name="NewShoe" sheetId="42" r:id="rId42"/>
+    <sheet name="Sheet24" sheetId="43" r:id="rId43"/>
+    <sheet name="Shoe#6" sheetId="44" r:id="rId44"/>
+    <sheet name="Shoe#7" sheetId="45" r:id="rId45"/>
+    <sheet name="Shoe#8" sheetId="46" r:id="rId46"/>
+    <sheet name="Shoe#9" sheetId="47" r:id="rId47"/>
+    <sheet name="Shoe#10" sheetId="48" r:id="rId48"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7039" uniqueCount="77">
   <si>
     <t>Board</t>
   </si>
@@ -236,12 +242,69 @@
   <si>
     <t>end game +6</t>
   </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Pre-Flip Check - Flip</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>xF2</t>
+  </si>
+  <si>
+    <t>Pre-Flip Check - Predom</t>
+  </si>
+  <si>
+    <t>Official Loss</t>
+  </si>
+  <si>
+    <t>xF3</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Natural - DT</t>
+  </si>
+  <si>
+    <t>1XP - WB</t>
+  </si>
+  <si>
+    <t>Chop - DT</t>
+  </si>
+  <si>
+    <t>Chop - 3 Times Switch</t>
+  </si>
+  <si>
+    <t>Reset WB</t>
+  </si>
+  <si>
+    <t>Flip</t>
+  </si>
+  <si>
+    <t>Pre-Dominance</t>
+  </si>
+  <si>
+    <t>Reset - WB</t>
+  </si>
+  <si>
+    <t>Tommy - DT</t>
+  </si>
+  <si>
+    <t>Should be Chop here - 3 Times Switch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +331,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -379,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -432,6 +520,11 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28962,7 +29055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -29983,6 +30076,7274 @@
       </c>
       <c r="G69" s="12">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-2</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="12">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-4</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63" s="10">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="12">
+        <v>-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-2</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-6</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-8</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-4</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-4</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-2</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-2</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-1</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-2</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="12">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="34" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-4</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-7</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-7</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-9</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-11</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-12</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-14</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-14</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="10">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-9</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-7</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-6</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53">
+        <v>-1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="10">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-9</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G66">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-11</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-9</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="12">
+        <v>-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>11</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G74" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="12">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+  <dimension ref="A1:G70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G62">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" s="10">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="12">
+        <v>-12</v>
       </c>
     </row>
   </sheetData>
